--- a/Textbooks, projects/Organization and management of production activities/yana/cgt_yana.xlsx
+++ b/Textbooks, projects/Organization and management of production activities/yana/cgt_yana.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09D654-B3BA-4618-816A-5AE94D18E821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19986C48-C863-46ED-9035-A52A5F73DCE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3245,12 +3245,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -3326,7 +3332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3445,6 +3451,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25035,8 +25047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2007E5-6982-4709-B7BA-1AE732A055CC}">
   <dimension ref="A1:L586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="X570" sqref="X570"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25600,40 +25612,40 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="45">
         <v>13.208381999999999</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="45">
         <v>7.7859936000000003</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="45">
         <v>12.165615000000001</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="45">
         <v>10.323792827586207</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="45">
         <v>0.13679999999999998</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="45">
         <v>1.8255676576736961</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="45">
         <v>14.491525423728813</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="45">
         <v>7.4308713983999999</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="45">
         <v>0.89861055634285714</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="45">
         <v>2.1827361353142858</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="45">
         <v>70.449894599045862</v>
       </c>
     </row>
@@ -26147,40 +26159,40 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="45">
         <v>13.208381999999999</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="45">
         <v>5.8984799999999993</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="45">
         <v>9.2163749999999993</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="45">
         <v>10.323792827586207</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="45">
         <v>0.13679999999999998</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="45">
         <v>1.8255676576736961</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="45">
         <v>14.491525423728813</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="45">
         <v>7.4308713983999999</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="45">
         <v>0.89861055634285714</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="45">
         <v>2.1827361353142858</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="45">
         <v>65.613140999045868</v>
       </c>
     </row>
@@ -26694,40 +26706,40 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="45">
         <v>13.208381999999999</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="45">
         <v>4.7187840000000003</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="45">
         <v>7.3731000000000009</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="45">
         <v>10.323792827586207</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="45">
         <v>0.13679999999999998</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="45">
         <v>1.8255676576736961</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="45">
         <v>14.491525423728813</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="45">
         <v>7.4308713983999999</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="45">
         <v>0.89861055634285714</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="45">
         <v>2.1827361353142858</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="45">
         <v>62.59016999904587</v>
       </c>
     </row>
@@ -27165,40 +27177,40 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="40">
+      <c r="B59" s="45">
         <v>11.321470285714284</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="45">
         <v>13.488981120000002</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="45">
         <v>21.076533000000001</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="45">
         <v>12.044424965517242</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="45">
         <v>0.15959999999999999</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="45">
         <v>2.1298289339526453</v>
       </c>
-      <c r="H59" s="40">
+      <c r="H59" s="45">
         <v>16.906779661016948</v>
       </c>
-      <c r="I59" s="40">
+      <c r="I59" s="45">
         <v>8.6693499648000003</v>
       </c>
-      <c r="J59" s="40">
+      <c r="J59" s="45">
         <v>1.0483789824</v>
       </c>
-      <c r="K59" s="40">
+      <c r="K59" s="45">
         <v>2.5465254912000002</v>
       </c>
-      <c r="L59" s="40">
+      <c r="L59" s="45">
         <v>89.391872404601116</v>
       </c>
     </row>
@@ -27712,40 +27724,40 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B74" s="40">
+      <c r="B74" s="45">
         <v>11.321470285714284</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="45">
         <v>12.7407168</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="45">
         <v>19.90737</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="45">
         <v>12.044424965517242</v>
       </c>
-      <c r="F74" s="40">
+      <c r="F74" s="45">
         <v>0.15959999999999999</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="45">
         <v>2.1298289339526453</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="45">
         <v>16.906779661016948</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="45">
         <v>8.6693499648000003</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J74" s="45">
         <v>1.0483789824</v>
       </c>
-      <c r="K74" s="40">
+      <c r="K74" s="45">
         <v>2.5465254912000002</v>
       </c>
-      <c r="L74" s="40">
+      <c r="L74" s="45">
         <v>87.474445084601115</v>
       </c>
     </row>
@@ -28221,40 +28233,40 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="40">
+      <c r="B88" s="45">
         <v>10.378014428571428</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="45">
         <v>13.903559999999999</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="45">
         <v>21.7243125</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="45">
         <v>13.139372689655174</v>
       </c>
-      <c r="F88" s="40">
+      <c r="F88" s="45">
         <v>0.17410909090909088</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="45">
         <v>2.3234497461301586</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="45">
         <v>18.443759630200308</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="45">
         <v>9.457472688872727</v>
       </c>
-      <c r="J88" s="40">
+      <c r="J88" s="45">
         <v>1.1436861626181818</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="45">
         <v>2.7780278085818186</v>
       </c>
-      <c r="L88" s="40">
+      <c r="L88" s="45">
         <v>93.465764745538891</v>
       </c>
     </row>
@@ -28768,40 +28780,40 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B103" s="40">
+      <c r="B103" s="45">
         <v>10.378014428571428</v>
       </c>
-      <c r="C103" s="40">
+      <c r="C103" s="45">
         <v>14.830464000000001</v>
       </c>
-      <c r="D103" s="40">
+      <c r="D103" s="45">
         <v>23.172600000000003</v>
       </c>
-      <c r="E103" s="40">
+      <c r="E103" s="45">
         <v>13.139372689655174</v>
       </c>
-      <c r="F103" s="40">
+      <c r="F103" s="45">
         <v>0.17410909090909088</v>
       </c>
-      <c r="G103" s="40">
+      <c r="G103" s="45">
         <v>2.3234497461301586</v>
       </c>
-      <c r="H103" s="40">
+      <c r="H103" s="45">
         <v>18.443759630200308</v>
       </c>
-      <c r="I103" s="40">
+      <c r="I103" s="45">
         <v>9.457472688872727</v>
       </c>
-      <c r="J103" s="40">
+      <c r="J103" s="45">
         <v>1.1436861626181818</v>
       </c>
-      <c r="K103" s="40">
+      <c r="K103" s="45">
         <v>2.7780278085818186</v>
       </c>
-      <c r="L103" s="40">
+      <c r="L103" s="45">
         <v>95.840956245538891</v>
       </c>
     </row>
@@ -29201,40 +29213,40 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="40">
+      <c r="B115" s="45">
         <v>9.7539999999999996</v>
       </c>
-      <c r="C115" s="40">
+      <c r="C115" s="45">
         <v>25.279</v>
       </c>
-      <c r="D115" s="40">
+      <c r="D115" s="45">
         <v>25.279</v>
       </c>
-      <c r="E115" s="40">
+      <c r="E115" s="45">
         <v>18.396999999999998</v>
       </c>
-      <c r="F115" s="40">
+      <c r="F115" s="45">
         <v>0.28699999999999998</v>
       </c>
-      <c r="G115" s="40">
+      <c r="G115" s="45">
         <v>3.8340000000000001</v>
       </c>
-      <c r="H115" s="40">
+      <c r="H115" s="45">
         <v>25.36</v>
       </c>
-      <c r="I115" s="40">
+      <c r="I115" s="45">
         <v>15.605</v>
       </c>
-      <c r="J115" s="40">
+      <c r="J115" s="45">
         <v>1.887</v>
       </c>
-      <c r="K115" s="40">
+      <c r="K115" s="45">
         <v>4.5839999999999996</v>
       </c>
-      <c r="L115" s="40">
+      <c r="L115" s="45">
         <v>123.795</v>
       </c>
     </row>
@@ -29786,40 +29798,40 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="40">
+      <c r="B131" s="45">
         <v>10.973000000000001</v>
       </c>
-      <c r="C131" s="40">
+      <c r="C131" s="45">
         <v>18.940000000000001</v>
       </c>
-      <c r="D131" s="40">
+      <c r="D131" s="45">
         <v>18.940000000000001</v>
       </c>
-      <c r="E131" s="40">
+      <c r="E131" s="45">
         <v>10.891</v>
       </c>
-      <c r="F131" s="40">
+      <c r="F131" s="45">
         <v>0.255</v>
       </c>
-      <c r="G131" s="40">
+      <c r="G131" s="45">
         <v>3.4079999999999999</v>
       </c>
-      <c r="H131" s="40">
+      <c r="H131" s="45">
         <v>22.542000000000002</v>
       </c>
-      <c r="I131" s="40">
+      <c r="I131" s="45">
         <v>13.871</v>
       </c>
-      <c r="J131" s="40">
+      <c r="J131" s="45">
         <v>1.677</v>
       </c>
-      <c r="K131" s="40">
+      <c r="K131" s="45">
         <v>4.0739999999999998</v>
       </c>
-      <c r="L131" s="40">
+      <c r="L131" s="45">
         <v>99.82</v>
       </c>
     </row>
@@ -30371,40 +30383,40 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="40">
+      <c r="B147" s="45">
         <v>12.192</v>
       </c>
-      <c r="C147" s="40">
+      <c r="C147" s="45">
         <v>15.798999999999999</v>
       </c>
-      <c r="D147" s="40">
+      <c r="D147" s="45">
         <v>15.798999999999999</v>
       </c>
-      <c r="E147" s="40">
+      <c r="E147" s="45">
         <v>7.359</v>
       </c>
-      <c r="F147" s="40">
+      <c r="F147" s="45">
         <v>0.23</v>
       </c>
-      <c r="G147" s="40">
+      <c r="G147" s="45">
         <v>3.0670000000000002</v>
       </c>
-      <c r="H147" s="40">
+      <c r="H147" s="45">
         <v>20.288</v>
       </c>
-      <c r="I147" s="40">
+      <c r="I147" s="45">
         <v>12.484</v>
       </c>
-      <c r="J147" s="40">
+      <c r="J147" s="45">
         <v>1.51</v>
       </c>
-      <c r="K147" s="40">
+      <c r="K147" s="45">
         <v>3.6669999999999998</v>
       </c>
-      <c r="L147" s="40">
+      <c r="L147" s="45">
         <v>87.218000000000004</v>
       </c>
     </row>
@@ -30956,40 +30968,40 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="40">
+      <c r="B163" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C163" s="40">
+      <c r="C163" s="45">
         <v>13.904</v>
       </c>
-      <c r="D163" s="40">
+      <c r="D163" s="45">
         <v>13.904</v>
       </c>
-      <c r="E163" s="40">
+      <c r="E163" s="45">
         <v>5.3520000000000003</v>
       </c>
-      <c r="F163" s="40">
+      <c r="F163" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G163" s="40">
+      <c r="G163" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H163" s="40">
+      <c r="H163" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I163" s="40">
+      <c r="I163" s="45">
         <v>11.349</v>
       </c>
-      <c r="J163" s="40">
+      <c r="J163" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K163" s="40">
+      <c r="K163" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L163" s="40">
+      <c r="L163" s="45">
         <v>79.361999999999995</v>
       </c>
     </row>
@@ -31389,40 +31401,40 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B175" s="40">
+      <c r="B175" s="45">
         <v>9.7539999999999996</v>
       </c>
-      <c r="C175" s="40">
+      <c r="C175" s="45">
         <v>33.722000000000001</v>
       </c>
-      <c r="D175" s="40">
+      <c r="D175" s="45">
         <v>33.722000000000001</v>
       </c>
-      <c r="E175" s="40">
+      <c r="E175" s="45">
         <v>24.542000000000002</v>
       </c>
-      <c r="F175" s="40">
+      <c r="F175" s="45">
         <v>0.28699999999999998</v>
       </c>
-      <c r="G175" s="40">
+      <c r="G175" s="45">
         <v>3.8340000000000001</v>
       </c>
-      <c r="H175" s="40">
+      <c r="H175" s="45">
         <v>25.36</v>
       </c>
-      <c r="I175" s="40">
+      <c r="I175" s="45">
         <v>15.605</v>
       </c>
-      <c r="J175" s="40">
+      <c r="J175" s="45">
         <v>1.887</v>
       </c>
-      <c r="K175" s="40">
+      <c r="K175" s="45">
         <v>4.5839999999999996</v>
       </c>
-      <c r="L175" s="40">
+      <c r="L175" s="45">
         <v>146.82599999999999</v>
       </c>
     </row>
@@ -31936,40 +31948,40 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B190" s="40">
+      <c r="B190" s="45">
         <v>9.7539999999999996</v>
       </c>
-      <c r="C190" s="40">
+      <c r="C190" s="45">
         <v>31.599</v>
       </c>
-      <c r="D190" s="40">
+      <c r="D190" s="45">
         <v>31.599</v>
       </c>
-      <c r="E190" s="40">
+      <c r="E190" s="45">
         <v>22.997</v>
       </c>
-      <c r="F190" s="40">
+      <c r="F190" s="45">
         <v>0.28699999999999998</v>
       </c>
-      <c r="G190" s="40">
+      <c r="G190" s="45">
         <v>3.8340000000000001</v>
       </c>
-      <c r="H190" s="40">
+      <c r="H190" s="45">
         <v>25.36</v>
       </c>
-      <c r="I190" s="40">
+      <c r="I190" s="45">
         <v>15.605</v>
       </c>
-      <c r="J190" s="40">
+      <c r="J190" s="45">
         <v>1.887</v>
       </c>
-      <c r="K190" s="40">
+      <c r="K190" s="45">
         <v>4.5839999999999996</v>
       </c>
-      <c r="L190" s="40">
+      <c r="L190" s="45">
         <v>141.035</v>
       </c>
     </row>
@@ -32445,40 +32457,40 @@
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="31" t="s">
+      <c r="A204" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="B204" s="40">
+      <c r="B204" s="45">
         <v>8.5350000000000001</v>
       </c>
-      <c r="C204" s="40">
+      <c r="C204" s="45">
         <v>33.179000000000002</v>
       </c>
-      <c r="D204" s="40">
+      <c r="D204" s="45">
         <v>33.179000000000002</v>
       </c>
-      <c r="E204" s="40">
+      <c r="E204" s="45">
         <v>31.538</v>
       </c>
-      <c r="F204" s="40">
+      <c r="F204" s="45">
         <v>0.32800000000000001</v>
       </c>
-      <c r="G204" s="40">
+      <c r="G204" s="45">
         <v>4.3810000000000002</v>
       </c>
-      <c r="H204" s="40">
+      <c r="H204" s="45">
         <v>28.983000000000001</v>
       </c>
-      <c r="I204" s="40">
+      <c r="I204" s="45">
         <v>17.834</v>
       </c>
-      <c r="J204" s="40">
+      <c r="J204" s="45">
         <v>2.157</v>
       </c>
-      <c r="K204" s="40">
+      <c r="K204" s="45">
         <v>5.2389999999999999</v>
       </c>
-      <c r="L204" s="40">
+      <c r="L204" s="45">
         <v>157.95699999999999</v>
       </c>
     </row>
@@ -32992,40 +33004,40 @@
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="31" t="s">
+      <c r="A219" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B219" s="40">
+      <c r="B219" s="45">
         <v>8.5350000000000001</v>
       </c>
-      <c r="C219" s="40">
+      <c r="C219" s="45">
         <v>35.390999999999998</v>
       </c>
-      <c r="D219" s="40">
+      <c r="D219" s="45">
         <v>35.390999999999998</v>
       </c>
-      <c r="E219" s="40">
+      <c r="E219" s="45">
         <v>33.640999999999998</v>
       </c>
-      <c r="F219" s="40">
+      <c r="F219" s="45">
         <v>0.32800000000000001</v>
       </c>
-      <c r="G219" s="40">
+      <c r="G219" s="45">
         <v>4.3810000000000002</v>
       </c>
-      <c r="H219" s="40">
+      <c r="H219" s="45">
         <v>28.983000000000001</v>
       </c>
-      <c r="I219" s="40">
+      <c r="I219" s="45">
         <v>17.834</v>
       </c>
-      <c r="J219" s="40">
+      <c r="J219" s="45">
         <v>2.157</v>
       </c>
-      <c r="K219" s="40">
+      <c r="K219" s="45">
         <v>5.2389999999999999</v>
       </c>
-      <c r="L219" s="40">
+      <c r="L219" s="45">
         <v>164.48400000000001</v>
       </c>
     </row>
@@ -33653,40 +33665,40 @@
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="31" t="s">
+      <c r="A237" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B237" s="40">
+      <c r="B237" s="45">
         <v>12.192</v>
       </c>
-      <c r="C237" s="40">
+      <c r="C237" s="45">
         <v>21.065999999999999</v>
       </c>
-      <c r="D237" s="40">
+      <c r="D237" s="45">
         <v>21.065999999999999</v>
       </c>
-      <c r="E237" s="40">
+      <c r="E237" s="45">
         <v>14.718</v>
       </c>
-      <c r="F237" s="40">
+      <c r="F237" s="45">
         <v>0.23</v>
       </c>
-      <c r="G237" s="40">
+      <c r="G237" s="45">
         <v>3.0670000000000002</v>
       </c>
-      <c r="H237" s="40">
+      <c r="H237" s="45">
         <v>20.288</v>
       </c>
-      <c r="I237" s="40">
+      <c r="I237" s="45">
         <v>12.484</v>
       </c>
-      <c r="J237" s="40">
+      <c r="J237" s="45">
         <v>1.51</v>
       </c>
-      <c r="K237" s="40">
+      <c r="K237" s="45">
         <v>3.6669999999999998</v>
       </c>
-      <c r="L237" s="40">
+      <c r="L237" s="45">
         <v>105.111</v>
       </c>
     </row>
@@ -34238,40 +34250,40 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="31" t="s">
+      <c r="A253" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B253" s="40">
+      <c r="B253" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C253" s="40">
+      <c r="C253" s="45">
         <v>15.433</v>
       </c>
-      <c r="D253" s="40">
+      <c r="D253" s="45">
         <v>15.433</v>
       </c>
-      <c r="E253" s="40">
+      <c r="E253" s="45">
         <v>8.9109999999999996</v>
       </c>
-      <c r="F253" s="40">
+      <c r="F253" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G253" s="40">
+      <c r="G253" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H253" s="40">
+      <c r="H253" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I253" s="40">
+      <c r="I253" s="45">
         <v>11.349</v>
       </c>
-      <c r="J253" s="40">
+      <c r="J253" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K253" s="40">
+      <c r="K253" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L253" s="40">
+      <c r="L253" s="45">
         <v>85.978999999999999</v>
       </c>
     </row>
@@ -34785,40 +34797,40 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="31" t="s">
+      <c r="A268" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B268" s="40">
+      <c r="B268" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C268" s="40">
+      <c r="C268" s="45">
         <v>11.586</v>
       </c>
-      <c r="D268" s="40">
+      <c r="D268" s="45">
         <v>11.586</v>
       </c>
-      <c r="E268" s="40">
+      <c r="E268" s="45">
         <v>6.69</v>
       </c>
-      <c r="F268" s="40">
+      <c r="F268" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G268" s="40">
+      <c r="G268" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H268" s="40">
+      <c r="H268" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I268" s="40">
+      <c r="I268" s="45">
         <v>11.349</v>
       </c>
-      <c r="J268" s="40">
+      <c r="J268" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K268" s="40">
+      <c r="K268" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L268" s="40">
+      <c r="L268" s="45">
         <v>76.063999999999993</v>
       </c>
     </row>
@@ -35370,40 +35382,40 @@
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A284" s="31" t="s">
+      <c r="A284" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B284" s="40">
+      <c r="B284" s="45">
         <v>14.631</v>
       </c>
-      <c r="C284" s="40">
+      <c r="C284" s="45">
         <v>10.112</v>
       </c>
-      <c r="D284" s="40">
+      <c r="D284" s="45">
         <v>10.112</v>
       </c>
-      <c r="E284" s="40">
+      <c r="E284" s="45">
         <v>4.9059999999999997</v>
       </c>
-      <c r="F284" s="40">
+      <c r="F284" s="45">
         <v>0.192</v>
       </c>
-      <c r="G284" s="40">
+      <c r="G284" s="45">
         <v>2.556</v>
       </c>
-      <c r="H284" s="40">
+      <c r="H284" s="45">
         <v>16.907</v>
       </c>
-      <c r="I284" s="40">
+      <c r="I284" s="45">
         <v>10.403</v>
       </c>
-      <c r="J284" s="40">
+      <c r="J284" s="45">
         <v>1.258</v>
       </c>
-      <c r="K284" s="40">
+      <c r="K284" s="45">
         <v>3.056</v>
       </c>
-      <c r="L284" s="40">
+      <c r="L284" s="45">
         <v>69.819000000000003</v>
       </c>
     </row>
@@ -35803,40 +35815,40 @@
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A296" s="31" t="s">
+      <c r="A296" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B296" s="40">
+      <c r="B296" s="45">
         <v>10.973000000000001</v>
       </c>
-      <c r="C296" s="40">
+      <c r="C296" s="45">
         <v>25.292000000000002</v>
       </c>
-      <c r="D296" s="40">
+      <c r="D296" s="45">
         <v>25.292000000000002</v>
       </c>
-      <c r="E296" s="40">
+      <c r="E296" s="45">
         <v>21.815000000000001</v>
       </c>
-      <c r="F296" s="40">
+      <c r="F296" s="45">
         <v>0.255</v>
       </c>
-      <c r="G296" s="40">
+      <c r="G296" s="45">
         <v>3.4079999999999999</v>
       </c>
-      <c r="H296" s="40">
+      <c r="H296" s="45">
         <v>22.542000000000002</v>
       </c>
-      <c r="I296" s="40">
+      <c r="I296" s="45">
         <v>13.871</v>
       </c>
-      <c r="J296" s="40">
+      <c r="J296" s="45">
         <v>1.677</v>
       </c>
-      <c r="K296" s="40">
+      <c r="K296" s="45">
         <v>4.0739999999999998</v>
       </c>
-      <c r="L296" s="40">
+      <c r="L296" s="45">
         <v>123.44799999999999</v>
       </c>
     </row>
@@ -36350,40 +36362,40 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" s="31" t="s">
+      <c r="A311" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="B311" s="40">
+      <c r="B311" s="45">
         <v>10.973000000000001</v>
       </c>
-      <c r="C311" s="40">
+      <c r="C311" s="45">
         <v>23.699000000000002</v>
       </c>
-      <c r="D311" s="40">
+      <c r="D311" s="45">
         <v>23.699000000000002</v>
       </c>
-      <c r="E311" s="40">
+      <c r="E311" s="45">
         <v>20.442</v>
       </c>
-      <c r="F311" s="40">
+      <c r="F311" s="45">
         <v>0.255</v>
       </c>
-      <c r="G311" s="40">
+      <c r="G311" s="45">
         <v>3.4079999999999999</v>
       </c>
-      <c r="H311" s="40">
+      <c r="H311" s="45">
         <v>22.542000000000002</v>
       </c>
-      <c r="I311" s="40">
+      <c r="I311" s="45">
         <v>13.871</v>
       </c>
-      <c r="J311" s="40">
+      <c r="J311" s="45">
         <v>1.677</v>
       </c>
-      <c r="K311" s="40">
+      <c r="K311" s="45">
         <v>4.0739999999999998</v>
       </c>
-      <c r="L311" s="40">
+      <c r="L311" s="45">
         <v>118.889</v>
       </c>
     </row>
@@ -36897,40 +36909,40 @@
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="31" t="s">
+      <c r="A326" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="B326" s="40">
+      <c r="B326" s="45">
         <v>10.973000000000001</v>
       </c>
-      <c r="C326" s="40">
+      <c r="C326" s="45">
         <v>28.439</v>
       </c>
-      <c r="D326" s="40">
+      <c r="D326" s="45">
         <v>28.439</v>
       </c>
-      <c r="E326" s="40">
+      <c r="E326" s="45">
         <v>24.53</v>
       </c>
-      <c r="F326" s="40">
+      <c r="F326" s="45">
         <v>0.255</v>
       </c>
-      <c r="G326" s="40">
+      <c r="G326" s="45">
         <v>3.4079999999999999</v>
       </c>
-      <c r="H326" s="40">
+      <c r="H326" s="45">
         <v>22.542000000000002</v>
       </c>
-      <c r="I326" s="40">
+      <c r="I326" s="45">
         <v>13.871</v>
       </c>
-      <c r="J326" s="40">
+      <c r="J326" s="45">
         <v>1.677</v>
       </c>
-      <c r="K326" s="40">
+      <c r="K326" s="45">
         <v>4.0739999999999998</v>
       </c>
-      <c r="L326" s="40">
+      <c r="L326" s="45">
         <v>132.45699999999999</v>
       </c>
     </row>
@@ -37444,40 +37456,40 @@
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A341" s="31" t="s">
+      <c r="A341" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B341" s="40">
+      <c r="B341" s="45">
         <v>10.973000000000001</v>
       </c>
-      <c r="C341" s="40">
+      <c r="C341" s="45">
         <v>30.335000000000001</v>
       </c>
-      <c r="D341" s="40">
+      <c r="D341" s="45">
         <v>30.335000000000001</v>
       </c>
-      <c r="E341" s="40">
+      <c r="E341" s="45">
         <v>26.164999999999999</v>
       </c>
-      <c r="F341" s="40">
+      <c r="F341" s="45">
         <v>0.255</v>
       </c>
-      <c r="G341" s="40">
+      <c r="G341" s="45">
         <v>3.4079999999999999</v>
       </c>
-      <c r="H341" s="40">
+      <c r="H341" s="45">
         <v>22.542000000000002</v>
       </c>
-      <c r="I341" s="40">
+      <c r="I341" s="45">
         <v>13.871</v>
       </c>
-      <c r="J341" s="40">
+      <c r="J341" s="45">
         <v>1.677</v>
       </c>
-      <c r="K341" s="40">
+      <c r="K341" s="45">
         <v>4.0739999999999998</v>
       </c>
-      <c r="L341" s="40">
+      <c r="L341" s="45">
         <v>137.88399999999999</v>
       </c>
     </row>
@@ -38067,40 +38079,40 @@
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A358" s="31" t="s">
+      <c r="A358" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B358" s="40">
+      <c r="B358" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C358" s="40">
+      <c r="C358" s="45">
         <v>17.379000000000001</v>
       </c>
-      <c r="D358" s="40">
+      <c r="D358" s="45">
         <v>17.379000000000001</v>
       </c>
-      <c r="E358" s="40">
+      <c r="E358" s="45">
         <v>13.38</v>
       </c>
-      <c r="F358" s="40">
+      <c r="F358" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G358" s="40">
+      <c r="G358" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H358" s="40">
+      <c r="H358" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I358" s="40">
+      <c r="I358" s="45">
         <v>11.349</v>
       </c>
-      <c r="J358" s="40">
+      <c r="J358" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K358" s="40">
+      <c r="K358" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L358" s="40">
+      <c r="L358" s="45">
         <v>94.34</v>
       </c>
     </row>
@@ -38652,40 +38664,40 @@
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A374" s="31" t="s">
+      <c r="A374" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B374" s="40">
+      <c r="B374" s="45">
         <v>14.631</v>
       </c>
-      <c r="C374" s="40">
+      <c r="C374" s="45">
         <v>12.627000000000001</v>
       </c>
-      <c r="D374" s="40">
+      <c r="D374" s="45">
         <v>12.627000000000001</v>
       </c>
-      <c r="E374" s="40">
+      <c r="E374" s="45">
         <v>8.1679999999999993</v>
       </c>
-      <c r="F374" s="40">
+      <c r="F374" s="45">
         <v>0.192</v>
       </c>
-      <c r="G374" s="40">
+      <c r="G374" s="45">
         <v>2.556</v>
       </c>
-      <c r="H374" s="40">
+      <c r="H374" s="45">
         <v>16.907</v>
       </c>
-      <c r="I374" s="40">
+      <c r="I374" s="45">
         <v>10.403</v>
       </c>
-      <c r="J374" s="40">
+      <c r="J374" s="45">
         <v>1.258</v>
       </c>
-      <c r="K374" s="40">
+      <c r="K374" s="45">
         <v>3.056</v>
       </c>
-      <c r="L374" s="40">
+      <c r="L374" s="45">
         <v>78.111000000000004</v>
       </c>
     </row>
@@ -39199,40 +39211,40 @@
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A389" s="31" t="s">
+      <c r="A389" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B389" s="40">
+      <c r="B389" s="45">
         <v>14.631</v>
       </c>
-      <c r="C389" s="40">
+      <c r="C389" s="45">
         <v>9.48</v>
       </c>
-      <c r="D389" s="40">
+      <c r="D389" s="45">
         <v>9.48</v>
       </c>
-      <c r="E389" s="40">
+      <c r="E389" s="45">
         <v>6.1319999999999997</v>
       </c>
-      <c r="F389" s="40">
+      <c r="F389" s="45">
         <v>0.192</v>
       </c>
-      <c r="G389" s="40">
+      <c r="G389" s="45">
         <v>2.556</v>
       </c>
-      <c r="H389" s="40">
+      <c r="H389" s="45">
         <v>16.907</v>
       </c>
-      <c r="I389" s="40">
+      <c r="I389" s="45">
         <v>10.403</v>
       </c>
-      <c r="J389" s="40">
+      <c r="J389" s="45">
         <v>1.258</v>
       </c>
-      <c r="K389" s="40">
+      <c r="K389" s="45">
         <v>3.056</v>
       </c>
-      <c r="L389" s="40">
+      <c r="L389" s="45">
         <v>69.781000000000006</v>
       </c>
     </row>
@@ -39784,40 +39796,40 @@
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A405" s="31" t="s">
+      <c r="A405" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B405" s="40">
+      <c r="B405" s="45">
         <v>15.85</v>
       </c>
-      <c r="C405" s="40">
+      <c r="C405" s="45">
         <v>8.2159999999999993</v>
       </c>
-      <c r="D405" s="40">
+      <c r="D405" s="45">
         <v>8.2159999999999993</v>
       </c>
-      <c r="E405" s="40">
+      <c r="E405" s="45">
         <v>4.5289999999999999</v>
       </c>
-      <c r="F405" s="40">
+      <c r="F405" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G405" s="40">
+      <c r="G405" s="45">
         <v>2.359</v>
       </c>
-      <c r="H405" s="40">
+      <c r="H405" s="45">
         <v>15.606</v>
       </c>
-      <c r="I405" s="40">
+      <c r="I405" s="45">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J405" s="40">
+      <c r="J405" s="45">
         <v>1.161</v>
       </c>
-      <c r="K405" s="40">
+      <c r="K405" s="45">
         <v>2.8210000000000002</v>
       </c>
-      <c r="L405" s="40">
+      <c r="L405" s="45">
         <v>64.555999999999997</v>
       </c>
     </row>
@@ -40217,40 +40229,40 @@
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A417" s="31" t="s">
+      <c r="A417" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B417" s="40">
+      <c r="B417" s="45">
         <v>12.192</v>
       </c>
-      <c r="C417" s="40">
+      <c r="C417" s="45">
         <v>21.077000000000002</v>
       </c>
-      <c r="D417" s="40">
+      <c r="D417" s="45">
         <v>21.077000000000002</v>
       </c>
-      <c r="E417" s="40">
+      <c r="E417" s="45">
         <v>19.634</v>
       </c>
-      <c r="F417" s="40">
+      <c r="F417" s="45">
         <v>0.23</v>
       </c>
-      <c r="G417" s="40">
+      <c r="G417" s="45">
         <v>3.0670000000000002</v>
       </c>
-      <c r="H417" s="40">
+      <c r="H417" s="45">
         <v>20.288</v>
       </c>
-      <c r="I417" s="40">
+      <c r="I417" s="45">
         <v>12.484</v>
       </c>
-      <c r="J417" s="40">
+      <c r="J417" s="45">
         <v>1.51</v>
       </c>
-      <c r="K417" s="40">
+      <c r="K417" s="45">
         <v>3.6669999999999998</v>
       </c>
-      <c r="L417" s="40">
+      <c r="L417" s="45">
         <v>110.04900000000001</v>
       </c>
     </row>
@@ -40764,40 +40776,40 @@
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A432" s="31" t="s">
+      <c r="A432" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B432" s="40">
+      <c r="B432" s="45">
         <v>12.192</v>
       </c>
-      <c r="C432" s="40">
+      <c r="C432" s="45">
         <v>19.748999999999999</v>
       </c>
-      <c r="D432" s="40">
+      <c r="D432" s="45">
         <v>19.748999999999999</v>
       </c>
-      <c r="E432" s="40">
+      <c r="E432" s="45">
         <v>18.396999999999998</v>
       </c>
-      <c r="F432" s="40">
+      <c r="F432" s="45">
         <v>0.23</v>
       </c>
-      <c r="G432" s="40">
+      <c r="G432" s="45">
         <v>3.0670000000000002</v>
       </c>
-      <c r="H432" s="40">
+      <c r="H432" s="45">
         <v>20.288</v>
       </c>
-      <c r="I432" s="40">
+      <c r="I432" s="45">
         <v>12.484</v>
       </c>
-      <c r="J432" s="40">
+      <c r="J432" s="45">
         <v>1.51</v>
       </c>
-      <c r="K432" s="40">
+      <c r="K432" s="45">
         <v>3.6669999999999998</v>
       </c>
-      <c r="L432" s="40">
+      <c r="L432" s="45">
         <v>106.15600000000001</v>
       </c>
     </row>
@@ -41311,40 +41323,40 @@
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A447" s="31" t="s">
+      <c r="A447" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B447" s="40">
+      <c r="B447" s="45">
         <v>12.192</v>
       </c>
-      <c r="C447" s="40">
+      <c r="C447" s="45">
         <v>23.699000000000002</v>
       </c>
-      <c r="D447" s="40">
+      <c r="D447" s="45">
         <v>23.699000000000002</v>
       </c>
-      <c r="E447" s="40">
+      <c r="E447" s="45">
         <v>22.077000000000002</v>
       </c>
-      <c r="F447" s="40">
+      <c r="F447" s="45">
         <v>0.23</v>
       </c>
-      <c r="G447" s="40">
+      <c r="G447" s="45">
         <v>3.0670000000000002</v>
       </c>
-      <c r="H447" s="40">
+      <c r="H447" s="45">
         <v>20.288</v>
       </c>
-      <c r="I447" s="40">
+      <c r="I447" s="45">
         <v>12.484</v>
       </c>
-      <c r="J447" s="40">
+      <c r="J447" s="45">
         <v>1.51</v>
       </c>
-      <c r="K447" s="40">
+      <c r="K447" s="45">
         <v>3.6669999999999998</v>
       </c>
-      <c r="L447" s="40">
+      <c r="L447" s="45">
         <v>117.736</v>
       </c>
     </row>
@@ -41858,40 +41870,40 @@
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A462" s="31" t="s">
+      <c r="A462" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="B462" s="40">
+      <c r="B462" s="45">
         <v>12.192</v>
       </c>
-      <c r="C462" s="40">
+      <c r="C462" s="45">
         <v>25.279</v>
       </c>
-      <c r="D462" s="40">
+      <c r="D462" s="45">
         <v>25.279</v>
       </c>
-      <c r="E462" s="40">
+      <c r="E462" s="45">
         <v>23.548999999999999</v>
       </c>
-      <c r="F462" s="40">
+      <c r="F462" s="45">
         <v>0.23</v>
       </c>
-      <c r="G462" s="40">
+      <c r="G462" s="45">
         <v>3.0670000000000002</v>
       </c>
-      <c r="H462" s="40">
+      <c r="H462" s="45">
         <v>20.288</v>
       </c>
-      <c r="I462" s="40">
+      <c r="I462" s="45">
         <v>12.484</v>
       </c>
-      <c r="J462" s="40">
+      <c r="J462" s="45">
         <v>1.51</v>
       </c>
-      <c r="K462" s="40">
+      <c r="K462" s="45">
         <v>3.6669999999999998</v>
       </c>
-      <c r="L462" s="40">
+      <c r="L462" s="45">
         <v>122.36799999999999</v>
       </c>
     </row>
@@ -42481,40 +42493,40 @@
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A479" s="31" t="s">
+      <c r="A479" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B479" s="40">
+      <c r="B479" s="45">
         <v>14.631</v>
       </c>
-      <c r="C479" s="40">
+      <c r="C479" s="45">
         <v>15.167999999999999</v>
       </c>
-      <c r="D479" s="40">
+      <c r="D479" s="45">
         <v>15.167999999999999</v>
       </c>
-      <c r="E479" s="40">
+      <c r="E479" s="45">
         <v>12.265000000000001</v>
       </c>
-      <c r="F479" s="40">
+      <c r="F479" s="45">
         <v>0.192</v>
       </c>
-      <c r="G479" s="40">
+      <c r="G479" s="45">
         <v>2.556</v>
       </c>
-      <c r="H479" s="40">
+      <c r="H479" s="45">
         <v>16.907</v>
       </c>
-      <c r="I479" s="40">
+      <c r="I479" s="45">
         <v>10.403</v>
       </c>
-      <c r="J479" s="40">
+      <c r="J479" s="45">
         <v>1.258</v>
       </c>
-      <c r="K479" s="40">
+      <c r="K479" s="45">
         <v>3.056</v>
       </c>
-      <c r="L479" s="40">
+      <c r="L479" s="45">
         <v>87.29</v>
       </c>
     </row>
@@ -43066,40 +43078,40 @@
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A495" s="31" t="s">
+      <c r="A495" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B495" s="40">
+      <c r="B495" s="45">
         <v>15.85</v>
       </c>
-      <c r="C495" s="40">
+      <c r="C495" s="45">
         <v>10.943</v>
       </c>
-      <c r="D495" s="40">
+      <c r="D495" s="45">
         <v>10.943</v>
       </c>
-      <c r="E495" s="40">
+      <c r="E495" s="45">
         <v>7.54</v>
       </c>
-      <c r="F495" s="40">
+      <c r="F495" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G495" s="40">
+      <c r="G495" s="45">
         <v>2.359</v>
       </c>
-      <c r="H495" s="40">
+      <c r="H495" s="45">
         <v>15.606</v>
       </c>
-      <c r="I495" s="40">
+      <c r="I495" s="45">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J495" s="40">
+      <c r="J495" s="45">
         <v>1.161</v>
       </c>
-      <c r="K495" s="40">
+      <c r="K495" s="45">
         <v>2.8210000000000002</v>
       </c>
-      <c r="L495" s="40">
+      <c r="L495" s="45">
         <v>73.021000000000001</v>
       </c>
     </row>
@@ -43613,40 +43625,40 @@
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A510" s="31" t="s">
+      <c r="A510" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B510" s="40">
+      <c r="B510" s="45">
         <v>15.85</v>
       </c>
-      <c r="C510" s="40">
+      <c r="C510" s="45">
         <v>8.2159999999999993</v>
       </c>
-      <c r="D510" s="40">
+      <c r="D510" s="45">
         <v>8.2159999999999993</v>
       </c>
-      <c r="E510" s="40">
+      <c r="E510" s="45">
         <v>5.6609999999999996</v>
       </c>
-      <c r="F510" s="40">
+      <c r="F510" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G510" s="40">
+      <c r="G510" s="45">
         <v>2.359</v>
       </c>
-      <c r="H510" s="40">
+      <c r="H510" s="45">
         <v>15.606</v>
       </c>
-      <c r="I510" s="40">
+      <c r="I510" s="45">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J510" s="40">
+      <c r="J510" s="45">
         <v>1.161</v>
       </c>
-      <c r="K510" s="40">
+      <c r="K510" s="45">
         <v>2.8210000000000002</v>
       </c>
-      <c r="L510" s="40">
+      <c r="L510" s="45">
         <v>65.688000000000002</v>
       </c>
     </row>
@@ -44160,40 +44172,40 @@
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A525" s="31" t="s">
+      <c r="A525" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B525" s="40">
+      <c r="B525" s="45">
         <v>15.85</v>
       </c>
-      <c r="C525" s="40">
+      <c r="C525" s="45">
         <v>6.5730000000000004</v>
       </c>
-      <c r="D525" s="40">
+      <c r="D525" s="45">
         <v>6.5730000000000004</v>
       </c>
-      <c r="E525" s="40">
+      <c r="E525" s="45">
         <v>4.5289999999999999</v>
       </c>
-      <c r="F525" s="40">
+      <c r="F525" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G525" s="40">
+      <c r="G525" s="45">
         <v>2.359</v>
       </c>
-      <c r="H525" s="40">
+      <c r="H525" s="45">
         <v>15.606</v>
       </c>
-      <c r="I525" s="40">
+      <c r="I525" s="45">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J525" s="40">
+      <c r="J525" s="45">
         <v>1.161</v>
       </c>
-      <c r="K525" s="40">
+      <c r="K525" s="45">
         <v>2.8210000000000002</v>
       </c>
-      <c r="L525" s="40">
+      <c r="L525" s="45">
         <v>61.27</v>
       </c>
     </row>
@@ -44631,40 +44643,40 @@
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A538" s="31" t="s">
+      <c r="A538" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B538" s="40">
+      <c r="B538" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C538" s="40">
+      <c r="C538" s="45">
         <v>18.547000000000001</v>
       </c>
-      <c r="D538" s="40">
+      <c r="D538" s="45">
         <v>18.547000000000001</v>
       </c>
-      <c r="E538" s="40">
+      <c r="E538" s="45">
         <v>17.849</v>
       </c>
-      <c r="F538" s="40">
+      <c r="F538" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G538" s="40">
+      <c r="G538" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H538" s="40">
+      <c r="H538" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I538" s="40">
+      <c r="I538" s="45">
         <v>11.349</v>
       </c>
-      <c r="J538" s="40">
+      <c r="J538" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K538" s="40">
+      <c r="K538" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L538" s="40">
+      <c r="L538" s="45">
         <v>101.145</v>
       </c>
     </row>
@@ -45178,40 +45190,40 @@
       </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A553" s="31" t="s">
+      <c r="A553" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B553" s="40">
+      <c r="B553" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C553" s="40">
+      <c r="C553" s="45">
         <v>17.379000000000001</v>
       </c>
-      <c r="D553" s="40">
+      <c r="D553" s="45">
         <v>17.379000000000001</v>
       </c>
-      <c r="E553" s="40">
+      <c r="E553" s="45">
         <v>16.725000000000001</v>
       </c>
-      <c r="F553" s="40">
+      <c r="F553" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G553" s="40">
+      <c r="G553" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H553" s="40">
+      <c r="H553" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I553" s="40">
+      <c r="I553" s="45">
         <v>11.349</v>
       </c>
-      <c r="J553" s="40">
+      <c r="J553" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K553" s="40">
+      <c r="K553" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L553" s="40">
+      <c r="L553" s="45">
         <v>97.685000000000002</v>
       </c>
     </row>
@@ -45725,40 +45737,40 @@
       </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A568" s="31" t="s">
+      <c r="A568" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B568" s="40">
+      <c r="B568" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C568" s="40">
+      <c r="C568" s="45">
         <v>20.855</v>
       </c>
-      <c r="D568" s="40">
+      <c r="D568" s="45">
         <v>20.855</v>
       </c>
-      <c r="E568" s="40">
+      <c r="E568" s="45">
         <v>20.07</v>
       </c>
-      <c r="F568" s="40">
+      <c r="F568" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G568" s="40">
+      <c r="G568" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H568" s="40">
+      <c r="H568" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I568" s="40">
+      <c r="I568" s="45">
         <v>11.349</v>
       </c>
-      <c r="J568" s="40">
+      <c r="J568" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K568" s="40">
+      <c r="K568" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L568" s="40">
+      <c r="L568" s="45">
         <v>107.982</v>
       </c>
     </row>
@@ -46272,40 +46284,40 @@
       </c>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A583" s="31" t="s">
+      <c r="A583" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B583" s="40">
+      <c r="B583" s="45">
         <v>13.412000000000001</v>
       </c>
-      <c r="C583" s="40">
+      <c r="C583" s="45">
         <v>22.245999999999999</v>
       </c>
-      <c r="D583" s="40">
+      <c r="D583" s="45">
         <v>22.245999999999999</v>
       </c>
-      <c r="E583" s="40">
+      <c r="E583" s="45">
         <v>21.408000000000001</v>
       </c>
-      <c r="F583" s="40">
+      <c r="F583" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G583" s="40">
+      <c r="G583" s="45">
         <v>2.7879999999999998</v>
       </c>
-      <c r="H583" s="40">
+      <c r="H583" s="45">
         <v>18.443999999999999</v>
       </c>
-      <c r="I583" s="40">
+      <c r="I583" s="45">
         <v>11.349</v>
       </c>
-      <c r="J583" s="40">
+      <c r="J583" s="45">
         <v>1.3720000000000001</v>
       </c>
-      <c r="K583" s="40">
+      <c r="K583" s="45">
         <v>3.3340000000000001</v>
       </c>
-      <c r="L583" s="40">
+      <c r="L583" s="45">
         <v>112.102</v>
       </c>
     </row>
@@ -46425,15 +46437,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B542:L542"/>
-    <mergeCell ref="B557:L557"/>
-    <mergeCell ref="B572:L572"/>
-    <mergeCell ref="B452:L452"/>
-    <mergeCell ref="B467:L467"/>
-    <mergeCell ref="B482:L482"/>
-    <mergeCell ref="B497:L497"/>
-    <mergeCell ref="B512:L512"/>
-    <mergeCell ref="B527:L527"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B257:L257"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B107:L107"/>
+    <mergeCell ref="B122:L122"/>
+    <mergeCell ref="B137:L137"/>
+    <mergeCell ref="B152:L152"/>
+    <mergeCell ref="B167:L167"/>
+    <mergeCell ref="B182:L182"/>
+    <mergeCell ref="B197:L197"/>
+    <mergeCell ref="B212:L212"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B242:L242"/>
     <mergeCell ref="B437:L437"/>
     <mergeCell ref="B272:L272"/>
     <mergeCell ref="B287:L287"/>
@@ -46446,24 +46467,15 @@
     <mergeCell ref="B392:L392"/>
     <mergeCell ref="B407:L407"/>
     <mergeCell ref="B422:L422"/>
-    <mergeCell ref="B257:L257"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B107:L107"/>
-    <mergeCell ref="B122:L122"/>
-    <mergeCell ref="B137:L137"/>
-    <mergeCell ref="B152:L152"/>
-    <mergeCell ref="B167:L167"/>
-    <mergeCell ref="B182:L182"/>
-    <mergeCell ref="B197:L197"/>
-    <mergeCell ref="B212:L212"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B242:L242"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B542:L542"/>
+    <mergeCell ref="B557:L557"/>
+    <mergeCell ref="B572:L572"/>
+    <mergeCell ref="B452:L452"/>
+    <mergeCell ref="B467:L467"/>
+    <mergeCell ref="B482:L482"/>
+    <mergeCell ref="B497:L497"/>
+    <mergeCell ref="B512:L512"/>
+    <mergeCell ref="B527:L527"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
